--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Il4-Cd53.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Il4-Cd53.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,12 +76,21 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +98,6 @@
   </si>
   <si>
     <t>Cd53</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.65227700109683</v>
+        <v>0.1647103333333333</v>
       </c>
       <c r="H2">
-        <v>0.65227700109683</v>
+        <v>0.494131</v>
       </c>
       <c r="I2">
-        <v>0.3096619671478617</v>
+        <v>0.05373200903458847</v>
       </c>
       <c r="J2">
-        <v>0.3096619671478617</v>
+        <v>0.05373200903458848</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>244.171521912884</v>
+        <v>0.039474</v>
       </c>
       <c r="N2">
-        <v>244.171521912884</v>
+        <v>0.118422</v>
       </c>
       <c r="O2">
-        <v>0.2317814069625868</v>
+        <v>3.481937703818737E-05</v>
       </c>
       <c r="P2">
-        <v>0.2317814069625868</v>
+        <v>3.481937703818736E-05</v>
       </c>
       <c r="Q2">
-        <v>159.2674680665849</v>
+        <v>0.006501775697999999</v>
       </c>
       <c r="R2">
-        <v>159.2674680665849</v>
+        <v>0.058515981282</v>
       </c>
       <c r="S2">
-        <v>0.07177388642833371</v>
+        <v>1.870915081594626E-06</v>
       </c>
       <c r="T2">
-        <v>0.07177388642833371</v>
+        <v>1.870915081594626E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.65227700109683</v>
+        <v>0.1647103333333333</v>
       </c>
       <c r="H3">
-        <v>0.65227700109683</v>
+        <v>0.494131</v>
       </c>
       <c r="I3">
-        <v>0.3096619671478617</v>
+        <v>0.05373200903458847</v>
       </c>
       <c r="J3">
-        <v>0.3096619671478617</v>
+        <v>0.05373200903458848</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>283.855346379218</v>
+        <v>298.8145063333333</v>
       </c>
       <c r="N3">
-        <v>283.855346379218</v>
+        <v>896.443519</v>
       </c>
       <c r="O3">
-        <v>0.2694515357163605</v>
+        <v>0.2635794436971211</v>
       </c>
       <c r="P3">
-        <v>0.2694515357163605</v>
+        <v>0.2635794436971211</v>
       </c>
       <c r="Q3">
-        <v>185.1523140815382</v>
+        <v>49.21783694299877</v>
       </c>
       <c r="R3">
-        <v>185.1523140815382</v>
+        <v>442.960532486989</v>
       </c>
       <c r="S3">
-        <v>0.08343889260094051</v>
+        <v>0.01416265305006551</v>
       </c>
       <c r="T3">
-        <v>0.08343889260094051</v>
+        <v>0.01416265305006551</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,123 +652,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.65227700109683</v>
+        <v>0.1647103333333333</v>
       </c>
       <c r="H4">
-        <v>0.65227700109683</v>
+        <v>0.494131</v>
       </c>
       <c r="I4">
-        <v>0.3096619671478617</v>
+        <v>0.05373200903458847</v>
       </c>
       <c r="J4">
-        <v>0.3096619671478617</v>
+        <v>0.05373200903458848</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>525.42916648077</v>
+        <v>291.7754463333334</v>
       </c>
       <c r="N4">
-        <v>525.42916648077</v>
+        <v>875.3263390000001</v>
       </c>
       <c r="O4">
-        <v>0.4987670573210528</v>
+        <v>0.2573704027047104</v>
       </c>
       <c r="P4">
-        <v>0.4987670573210528</v>
+        <v>0.2573704027047103</v>
       </c>
       <c r="Q4">
-        <v>342.7253610008837</v>
+        <v>48.05843102404545</v>
       </c>
       <c r="R4">
-        <v>342.7253610008837</v>
+        <v>432.525879216409</v>
       </c>
       <c r="S4">
-        <v>0.1544491881185875</v>
+        <v>0.01382902880336517</v>
       </c>
       <c r="T4">
-        <v>0.1544491881185875</v>
+        <v>0.01382902880336517</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.263709589942012</v>
+        <v>0.1647103333333333</v>
       </c>
       <c r="H5">
-        <v>0.263709589942012</v>
+        <v>0.494131</v>
       </c>
       <c r="I5">
-        <v>0.1251934841177651</v>
+        <v>0.05373200903458847</v>
       </c>
       <c r="J5">
-        <v>0.1251934841177651</v>
+        <v>0.05373200903458848</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>244.171521912884</v>
+        <v>543.0496726666667</v>
       </c>
       <c r="N5">
-        <v>244.171521912884</v>
+        <v>1629.149018</v>
       </c>
       <c r="O5">
-        <v>0.2317814069625868</v>
+        <v>0.4790153342211303</v>
       </c>
       <c r="P5">
-        <v>0.2317814069625868</v>
+        <v>0.4790153342211303</v>
       </c>
       <c r="Q5">
-        <v>64.39037191916364</v>
+        <v>89.44589260148422</v>
       </c>
       <c r="R5">
-        <v>64.39037191916364</v>
+        <v>805.013033413358</v>
       </c>
       <c r="S5">
-        <v>0.02901752189136385</v>
+        <v>0.02573845626607619</v>
       </c>
       <c r="T5">
-        <v>0.02901752189136385</v>
+        <v>0.02573845626607619</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.263709589942012</v>
+        <v>0.6783136666666666</v>
       </c>
       <c r="H6">
-        <v>0.263709589942012</v>
+        <v>2.034941</v>
       </c>
       <c r="I6">
-        <v>0.1251934841177651</v>
+        <v>0.2212803248467603</v>
       </c>
       <c r="J6">
-        <v>0.1251934841177651</v>
+        <v>0.2212803248467603</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>283.855346379218</v>
+        <v>0.039474</v>
       </c>
       <c r="N6">
-        <v>283.855346379218</v>
+        <v>0.118422</v>
       </c>
       <c r="O6">
-        <v>0.2694515357163605</v>
+        <v>3.481937703818737E-05</v>
       </c>
       <c r="P6">
-        <v>0.2694515357163605</v>
+        <v>3.481937703818736E-05</v>
       </c>
       <c r="Q6">
-        <v>74.85537699651137</v>
+        <v>0.026775753678</v>
       </c>
       <c r="R6">
-        <v>74.85537699651137</v>
+        <v>0.240981783102</v>
       </c>
       <c r="S6">
-        <v>0.03373357655721358</v>
+        <v>7.704843061971926E-06</v>
       </c>
       <c r="T6">
-        <v>0.03373357655721358</v>
+        <v>7.704843061971924E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,185 +838,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.263709589942012</v>
+        <v>0.6783136666666666</v>
       </c>
       <c r="H7">
-        <v>0.263709589942012</v>
+        <v>2.034941</v>
       </c>
       <c r="I7">
-        <v>0.1251934841177651</v>
+        <v>0.2212803248467603</v>
       </c>
       <c r="J7">
-        <v>0.1251934841177651</v>
+        <v>0.2212803248467603</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>525.42916648077</v>
+        <v>298.8145063333333</v>
       </c>
       <c r="N7">
-        <v>525.42916648077</v>
+        <v>896.443519</v>
       </c>
       <c r="O7">
-        <v>0.4987670573210528</v>
+        <v>0.2635794436971211</v>
       </c>
       <c r="P7">
-        <v>0.4987670573210528</v>
+        <v>0.2635794436971211</v>
       </c>
       <c r="Q7">
-        <v>138.560710036217</v>
+        <v>202.6899634441532</v>
       </c>
       <c r="R7">
-        <v>138.560710036217</v>
+        <v>1824.209670997379</v>
       </c>
       <c r="S7">
-        <v>0.06244238566918765</v>
+        <v>0.05832494492422732</v>
       </c>
       <c r="T7">
-        <v>0.06244238566918765</v>
+        <v>0.05832494492422732</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.19042966377159</v>
+        <v>0.6783136666666666</v>
       </c>
       <c r="H8">
-        <v>1.19042966377159</v>
+        <v>2.034941</v>
       </c>
       <c r="I8">
-        <v>0.5651445487343731</v>
+        <v>0.2212803248467603</v>
       </c>
       <c r="J8">
-        <v>0.5651445487343731</v>
+        <v>0.2212803248467603</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>244.171521912884</v>
+        <v>291.7754463333334</v>
       </c>
       <c r="N8">
-        <v>244.171521912884</v>
+        <v>875.3263390000001</v>
       </c>
       <c r="O8">
-        <v>0.2317814069625868</v>
+        <v>0.2573704027047104</v>
       </c>
       <c r="P8">
-        <v>0.2317814069625868</v>
+        <v>0.2573704027047103</v>
       </c>
       <c r="Q8">
-        <v>290.6690227333519</v>
+        <v>197.9152728456665</v>
       </c>
       <c r="R8">
-        <v>290.6690227333519</v>
+        <v>1781.237455610999</v>
       </c>
       <c r="S8">
-        <v>0.1309899986428892</v>
+        <v>0.05695100631643982</v>
       </c>
       <c r="T8">
-        <v>0.1309899986428892</v>
+        <v>0.05695100631643981</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.19042966377159</v>
+        <v>0.6783136666666666</v>
       </c>
       <c r="H9">
-        <v>1.19042966377159</v>
+        <v>2.034941</v>
       </c>
       <c r="I9">
-        <v>0.5651445487343731</v>
+        <v>0.2212803248467603</v>
       </c>
       <c r="J9">
-        <v>0.5651445487343731</v>
+        <v>0.2212803248467603</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>283.855346379218</v>
+        <v>543.0496726666667</v>
       </c>
       <c r="N9">
-        <v>283.855346379218</v>
+        <v>1629.149018</v>
       </c>
       <c r="O9">
-        <v>0.2694515357163605</v>
+        <v>0.4790153342211303</v>
       </c>
       <c r="P9">
-        <v>0.2694515357163605</v>
+        <v>0.4790153342211303</v>
       </c>
       <c r="Q9">
-        <v>337.9098245499807</v>
+        <v>368.3580146486597</v>
       </c>
       <c r="R9">
-        <v>337.9098245499807</v>
+        <v>3315.222131837938</v>
       </c>
       <c r="S9">
-        <v>0.1522790665582064</v>
+        <v>0.1059966687630312</v>
       </c>
       <c r="T9">
-        <v>0.1522790665582064</v>
+        <v>0.1059966687630312</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,991 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.3320596666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.996179</v>
+      </c>
+      <c r="I10">
+        <v>0.1083249159191941</v>
+      </c>
+      <c r="J10">
+        <v>0.1083249159191941</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.039474</v>
+      </c>
+      <c r="N10">
+        <v>0.118422</v>
+      </c>
+      <c r="O10">
+        <v>3.481937703818737E-05</v>
+      </c>
+      <c r="P10">
+        <v>3.481937703818736E-05</v>
+      </c>
+      <c r="Q10">
+        <v>0.013107723282</v>
+      </c>
+      <c r="R10">
+        <v>0.117969509538</v>
+      </c>
+      <c r="S10">
+        <v>3.771806090020365E-06</v>
+      </c>
+      <c r="T10">
+        <v>3.771806090020365E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.3320596666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.996179</v>
+      </c>
+      <c r="I11">
+        <v>0.1083249159191941</v>
+      </c>
+      <c r="J11">
+        <v>0.1083249159191941</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>298.8145063333333</v>
+      </c>
+      <c r="N11">
+        <v>896.443519</v>
+      </c>
+      <c r="O11">
+        <v>0.2635794436971211</v>
+      </c>
+      <c r="P11">
+        <v>0.2635794436971211</v>
+      </c>
+      <c r="Q11">
+        <v>99.22424536821123</v>
+      </c>
+      <c r="R11">
+        <v>893.018208313901</v>
+      </c>
+      <c r="S11">
+        <v>0.02855222107651861</v>
+      </c>
+      <c r="T11">
+        <v>0.02855222107651861</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.3320596666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.996179</v>
+      </c>
+      <c r="I12">
+        <v>0.1083249159191941</v>
+      </c>
+      <c r="J12">
+        <v>0.1083249159191941</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>291.7754463333334</v>
+      </c>
+      <c r="N12">
+        <v>875.3263390000001</v>
+      </c>
+      <c r="O12">
+        <v>0.2573704027047104</v>
+      </c>
+      <c r="P12">
+        <v>0.2573704027047103</v>
+      </c>
+      <c r="Q12">
+        <v>96.88685745096458</v>
+      </c>
+      <c r="R12">
+        <v>871.9817170586811</v>
+      </c>
+      <c r="S12">
+        <v>0.02787962723307689</v>
+      </c>
+      <c r="T12">
+        <v>0.02787962723307688</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.19042966377159</v>
-      </c>
-      <c r="H10">
-        <v>1.19042966377159</v>
-      </c>
-      <c r="I10">
-        <v>0.5651445487343731</v>
-      </c>
-      <c r="J10">
-        <v>0.5651445487343731</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>525.42916648077</v>
-      </c>
-      <c r="N10">
-        <v>525.42916648077</v>
-      </c>
-      <c r="O10">
-        <v>0.4987670573210528</v>
-      </c>
-      <c r="P10">
-        <v>0.4987670573210528</v>
-      </c>
-      <c r="Q10">
-        <v>625.4864659894899</v>
-      </c>
-      <c r="R10">
-        <v>625.4864659894899</v>
-      </c>
-      <c r="S10">
-        <v>0.2818754835332776</v>
-      </c>
-      <c r="T10">
-        <v>0.2818754835332776</v>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.3320596666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.996179</v>
+      </c>
+      <c r="I13">
+        <v>0.1083249159191941</v>
+      </c>
+      <c r="J13">
+        <v>0.1083249159191941</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>543.0496726666667</v>
+      </c>
+      <c r="N13">
+        <v>1629.149018</v>
+      </c>
+      <c r="O13">
+        <v>0.4790153342211303</v>
+      </c>
+      <c r="P13">
+        <v>0.4790153342211303</v>
+      </c>
+      <c r="Q13">
+        <v>180.3248932891358</v>
+      </c>
+      <c r="R13">
+        <v>1622.924039602222</v>
+      </c>
+      <c r="S13">
+        <v>0.05188929580350862</v>
+      </c>
+      <c r="T13">
+        <v>0.05188929580350862</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.272073</v>
+      </c>
+      <c r="H14">
+        <v>0.816219</v>
+      </c>
+      <c r="I14">
+        <v>0.08875599118898181</v>
+      </c>
+      <c r="J14">
+        <v>0.08875599118898181</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.039474</v>
+      </c>
+      <c r="N14">
+        <v>0.118422</v>
+      </c>
+      <c r="O14">
+        <v>3.481937703818737E-05</v>
+      </c>
+      <c r="P14">
+        <v>3.481937703818736E-05</v>
+      </c>
+      <c r="Q14">
+        <v>0.010739809602</v>
+      </c>
+      <c r="R14">
+        <v>0.09665828641800001</v>
+      </c>
+      <c r="S14">
+        <v>3.090428321607193E-06</v>
+      </c>
+      <c r="T14">
+        <v>3.090428321607193E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.272073</v>
+      </c>
+      <c r="H15">
+        <v>0.816219</v>
+      </c>
+      <c r="I15">
+        <v>0.08875599118898181</v>
+      </c>
+      <c r="J15">
+        <v>0.08875599118898181</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>298.8145063333333</v>
+      </c>
+      <c r="N15">
+        <v>896.443519</v>
+      </c>
+      <c r="O15">
+        <v>0.2635794436971211</v>
+      </c>
+      <c r="P15">
+        <v>0.2635794436971211</v>
+      </c>
+      <c r="Q15">
+        <v>81.299359181629</v>
+      </c>
+      <c r="R15">
+        <v>731.694232634661</v>
+      </c>
+      <c r="S15">
+        <v>0.02339425478237841</v>
+      </c>
+      <c r="T15">
+        <v>0.02339425478237841</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.272073</v>
+      </c>
+      <c r="H16">
+        <v>0.816219</v>
+      </c>
+      <c r="I16">
+        <v>0.08875599118898181</v>
+      </c>
+      <c r="J16">
+        <v>0.08875599118898181</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>291.7754463333334</v>
+      </c>
+      <c r="N16">
+        <v>875.3263390000001</v>
+      </c>
+      <c r="O16">
+        <v>0.2573704027047104</v>
+      </c>
+      <c r="P16">
+        <v>0.2573704027047103</v>
+      </c>
+      <c r="Q16">
+        <v>79.38422101024902</v>
+      </c>
+      <c r="R16">
+        <v>714.4579890922411</v>
+      </c>
+      <c r="S16">
+        <v>0.02284316519476397</v>
+      </c>
+      <c r="T16">
+        <v>0.02284316519476397</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.272073</v>
+      </c>
+      <c r="H17">
+        <v>0.816219</v>
+      </c>
+      <c r="I17">
+        <v>0.08875599118898181</v>
+      </c>
+      <c r="J17">
+        <v>0.08875599118898181</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>543.0496726666667</v>
+      </c>
+      <c r="N17">
+        <v>1629.149018</v>
+      </c>
+      <c r="O17">
+        <v>0.4790153342211303</v>
+      </c>
+      <c r="P17">
+        <v>0.4790153342211303</v>
+      </c>
+      <c r="Q17">
+        <v>147.749153591438</v>
+      </c>
+      <c r="R17">
+        <v>1329.742382322942</v>
+      </c>
+      <c r="S17">
+        <v>0.04251548078351781</v>
+      </c>
+      <c r="T17">
+        <v>0.04251548078351781</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.2558096666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.767429</v>
+      </c>
+      <c r="I18">
+        <v>0.08345054643688657</v>
+      </c>
+      <c r="J18">
+        <v>0.08345054643688658</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.039474</v>
+      </c>
+      <c r="N18">
+        <v>0.118422</v>
+      </c>
+      <c r="O18">
+        <v>3.481937703818737E-05</v>
+      </c>
+      <c r="P18">
+        <v>3.481937703818736E-05</v>
+      </c>
+      <c r="Q18">
+        <v>0.010097830782</v>
+      </c>
+      <c r="R18">
+        <v>0.09088047703800001</v>
+      </c>
+      <c r="S18">
+        <v>2.905696040428717E-06</v>
+      </c>
+      <c r="T18">
+        <v>2.905696040428717E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.2558096666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.767429</v>
+      </c>
+      <c r="I19">
+        <v>0.08345054643688657</v>
+      </c>
+      <c r="J19">
+        <v>0.08345054643688658</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>298.8145063333333</v>
+      </c>
+      <c r="N19">
+        <v>896.443519</v>
+      </c>
+      <c r="O19">
+        <v>0.2635794436971211</v>
+      </c>
+      <c r="P19">
+        <v>0.2635794436971211</v>
+      </c>
+      <c r="Q19">
+        <v>76.43963926029456</v>
+      </c>
+      <c r="R19">
+        <v>687.956753342651</v>
+      </c>
+      <c r="S19">
+        <v>0.02199584860605533</v>
+      </c>
+      <c r="T19">
+        <v>0.02199584860605534</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.2558096666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.767429</v>
+      </c>
+      <c r="I20">
+        <v>0.08345054643688657</v>
+      </c>
+      <c r="J20">
+        <v>0.08345054643688658</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>291.7754463333334</v>
+      </c>
+      <c r="N20">
+        <v>875.3263390000001</v>
+      </c>
+      <c r="O20">
+        <v>0.2573704027047104</v>
+      </c>
+      <c r="P20">
+        <v>0.2573704027047103</v>
+      </c>
+      <c r="Q20">
+        <v>74.6389796680479</v>
+      </c>
+      <c r="R20">
+        <v>671.7508170124311</v>
+      </c>
+      <c r="S20">
+        <v>0.02147770074238963</v>
+      </c>
+      <c r="T20">
+        <v>0.02147770074238963</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.2558096666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.767429</v>
+      </c>
+      <c r="I21">
+        <v>0.08345054643688657</v>
+      </c>
+      <c r="J21">
+        <v>0.08345054643688658</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>543.0496726666667</v>
+      </c>
+      <c r="N21">
+        <v>1629.149018</v>
+      </c>
+      <c r="O21">
+        <v>0.4790153342211303</v>
+      </c>
+      <c r="P21">
+        <v>0.4790153342211303</v>
+      </c>
+      <c r="Q21">
+        <v>138.9173557483024</v>
+      </c>
+      <c r="R21">
+        <v>1250.256201734722</v>
+      </c>
+      <c r="S21">
+        <v>0.03997409139240117</v>
+      </c>
+      <c r="T21">
+        <v>0.03997409139240118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.362438</v>
+      </c>
+      <c r="H22">
+        <v>4.087314</v>
+      </c>
+      <c r="I22">
+        <v>0.4444562125735887</v>
+      </c>
+      <c r="J22">
+        <v>0.4444562125735887</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.039474</v>
+      </c>
+      <c r="N22">
+        <v>0.118422</v>
+      </c>
+      <c r="O22">
+        <v>3.481937703818737E-05</v>
+      </c>
+      <c r="P22">
+        <v>3.481937703818736E-05</v>
+      </c>
+      <c r="Q22">
+        <v>0.053780877612</v>
+      </c>
+      <c r="R22">
+        <v>0.484027898508</v>
+      </c>
+      <c r="S22">
+        <v>1.547568844256454E-05</v>
+      </c>
+      <c r="T22">
+        <v>1.547568844256454E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.362438</v>
+      </c>
+      <c r="H23">
+        <v>4.087314</v>
+      </c>
+      <c r="I23">
+        <v>0.4444562125735887</v>
+      </c>
+      <c r="J23">
+        <v>0.4444562125735887</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>298.8145063333333</v>
+      </c>
+      <c r="N23">
+        <v>896.443519</v>
+      </c>
+      <c r="O23">
+        <v>0.2635794436971211</v>
+      </c>
+      <c r="P23">
+        <v>0.2635794436971211</v>
+      </c>
+      <c r="Q23">
+        <v>407.116238379774</v>
+      </c>
+      <c r="R23">
+        <v>3664.046145417966</v>
+      </c>
+      <c r="S23">
+        <v>0.1171495212578759</v>
+      </c>
+      <c r="T23">
+        <v>0.1171495212578759</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.362438</v>
+      </c>
+      <c r="H24">
+        <v>4.087314</v>
+      </c>
+      <c r="I24">
+        <v>0.4444562125735887</v>
+      </c>
+      <c r="J24">
+        <v>0.4444562125735887</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>291.7754463333334</v>
+      </c>
+      <c r="N24">
+        <v>875.3263390000001</v>
+      </c>
+      <c r="O24">
+        <v>0.2573704027047104</v>
+      </c>
+      <c r="P24">
+        <v>0.2573704027047103</v>
+      </c>
+      <c r="Q24">
+        <v>397.5259555514941</v>
+      </c>
+      <c r="R24">
+        <v>3577.733599963447</v>
+      </c>
+      <c r="S24">
+        <v>0.1143898744146749</v>
+      </c>
+      <c r="T24">
+        <v>0.1143898744146749</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.362438</v>
+      </c>
+      <c r="H25">
+        <v>4.087314</v>
+      </c>
+      <c r="I25">
+        <v>0.4444562125735887</v>
+      </c>
+      <c r="J25">
+        <v>0.4444562125735887</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>543.0496726666667</v>
+      </c>
+      <c r="N25">
+        <v>1629.149018</v>
+      </c>
+      <c r="O25">
+        <v>0.4790153342211303</v>
+      </c>
+      <c r="P25">
+        <v>0.4790153342211303</v>
+      </c>
+      <c r="Q25">
+        <v>739.871509928628</v>
+      </c>
+      <c r="R25">
+        <v>6658.843589357652</v>
+      </c>
+      <c r="S25">
+        <v>0.2129013412125953</v>
+      </c>
+      <c r="T25">
+        <v>0.2129013412125953</v>
       </c>
     </row>
   </sheetData>
